--- a/main/static/groups/test.xlsx
+++ b/main/static/groups/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH8TW\Desktop\training-app\static\groups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hubert\Desktop\studia pwr\notatki\semestr 7\piizsw\main\static\groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A458AA-4CFC-4D0B-AC0E-6D2AB4104485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECCE0F2-21AE-4140-B4E4-3C22A60ECBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="795" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,83 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nazwisko</t>
   </si>
   <si>
-    <t>Nr ewidencyjny</t>
-  </si>
-  <si>
     <t>Imię</t>
   </si>
   <si>
-    <t>Stanowisko</t>
-  </si>
-  <si>
-    <t>Jednostka</t>
-  </si>
-  <si>
-    <t>Przełożony</t>
-  </si>
-  <si>
-    <t>Nazwa MPK</t>
-  </si>
-  <si>
     <t>LASOCKI</t>
   </si>
   <si>
     <t>MATEUSZ</t>
   </si>
   <si>
-    <t>STARSZY SPECJALSTA DS. JAKOŚCI DOSTAWCÓW</t>
-  </si>
-  <si>
-    <t>M/PQT5.1-EU</t>
-  </si>
-  <si>
-    <t>ULATOWSKA HONORATA</t>
-  </si>
-  <si>
-    <t>623997-SAL</t>
-  </si>
-  <si>
     <t>STĄPOREK</t>
   </si>
   <si>
     <t>DAMIAN</t>
-  </si>
-  <si>
-    <t>KIEROWNIK SEKCJI</t>
-  </si>
-  <si>
-    <t>WwP/MOE1.3</t>
-  </si>
-  <si>
-    <t>BORGUL MATEUSZ</t>
-  </si>
-  <si>
-    <t>623101-SAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -137,27 +91,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -168,19 +107,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -201,25 +127,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,163 +418,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="A4:G11"/>
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>60669727</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>60669735</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
